--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/posthuman-text/out_there/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ACD47A-FD47-734E-BAFA-E0752AAB48DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="300" windowWidth="25600" windowHeight="20500" tabRatio="500"/>
+    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="438">
   <si>
     <t>#</t>
   </si>
@@ -1315,13 +1321,31 @@
   </si>
   <si>
     <t>seikkailu uusissa maailmoissa</t>
+  </si>
+  <si>
+    <t>Kriang Krai Chanthara</t>
+  </si>
+  <si>
+    <t>tekniikka, organisointi</t>
+  </si>
+  <si>
+    <t>Sosiaalinen oikeudenmukaisuus</t>
+  </si>
+  <si>
+    <t>Taman Sari</t>
+  </si>
+  <si>
+    <t>korkean paikan hitsaaja</t>
+  </si>
+  <si>
+    <t>mekaniikka</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1482,6 +1506,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1806,15 +1838,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="3" customWidth="1"/>
@@ -1829,7 +1861,7 @@
     <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:17" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2680,7 +2712,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2717,7 +2749,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15">
+    <row r="26" spans="1:15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2748,7 +2780,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15">
+    <row r="27" spans="1:15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2782,7 +2814,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15">
+    <row r="28" spans="1:15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2816,7 +2848,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15">
+    <row r="29" spans="1:15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3020,7 +3052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15">
+    <row r="35" spans="1:15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3060,7 +3092,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15">
+    <row r="36" spans="1:15">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3131,7 +3163,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15">
+    <row r="38" spans="1:15">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3347,7 +3379,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15">
+    <row r="44" spans="1:15">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3464,7 +3496,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="15">
+    <row r="47" spans="1:15">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3498,7 +3530,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="15">
+    <row r="48" spans="1:15">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3532,7 +3564,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15">
+    <row r="49" spans="1:15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3563,7 +3595,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15">
+    <row r="50" spans="1:15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3603,7 +3635,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15">
+    <row r="51" spans="1:15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3640,7 +3672,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15">
+    <row r="52" spans="1:15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3711,7 +3743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15">
+    <row r="54" spans="1:15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3754,7 +3786,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15">
+    <row r="55" spans="1:15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3822,7 +3854,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="15">
+    <row r="57" spans="1:15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3899,7 +3931,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="15">
+    <row r="59" spans="1:15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4010,7 +4042,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="15">
+    <row r="62" spans="1:15">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4047,7 +4079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15">
+    <row r="63" spans="1:15">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4123,7 +4155,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="15">
+    <row r="65" spans="1:15">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4197,7 +4229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="15">
+    <row r="67" spans="1:15">
       <c r="A67">
         <f t="shared" ref="A67:A101" si="2">ROW()-1</f>
         <v>66</v>
@@ -4215,7 +4247,7 @@
         <v>2113</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F103" si="3">(2133-E67)</f>
+        <f t="shared" ref="F67:F104" si="3">(2133-E67)</f>
         <v>20</v>
       </c>
       <c r="G67" s="2">
@@ -4233,7 +4265,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="15">
+    <row r="68" spans="1:15">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -4267,7 +4299,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="15">
+    <row r="69" spans="1:15">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -4377,7 +4409,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="15">
+    <row r="72" spans="1:15">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -4521,7 +4553,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="15">
+    <row r="76" spans="1:15">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -4555,7 +4587,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="15">
+    <row r="77" spans="1:15">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -4594,7 +4626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15">
+    <row r="78" spans="1:15">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -4631,7 +4663,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15">
+    <row r="79" spans="1:15">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -4665,7 +4697,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15">
+    <row r="80" spans="1:15">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -4699,7 +4731,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="15">
+    <row r="81" spans="1:15">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4807,7 +4839,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="15">
+    <row r="84" spans="1:15">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -4841,7 +4873,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="15">
+    <row r="85" spans="1:15">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -4877,7 +4909,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="15">
+    <row r="86" spans="1:15">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -4945,7 +4977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="15">
+    <row r="88" spans="1:15">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -5047,7 +5079,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="15">
+    <row r="91" spans="1:15">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5152,7 +5184,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="15">
+    <row r="94" spans="1:15">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -5223,7 +5255,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="15">
+    <row r="96" spans="1:15">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -5257,7 +5289,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="15">
+    <row r="97" spans="1:15">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -5294,7 +5326,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="15">
+    <row r="98" spans="1:15">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -5371,7 +5403,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="15">
+    <row r="100" spans="1:15">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -5520,8 +5552,39 @@
       <c r="A104">
         <v>103</v>
       </c>
+      <c r="B104" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="C104" t="s">
         <v>426</v>
+      </c>
+      <c r="D104" t="s">
+        <v>65</v>
+      </c>
+      <c r="E104">
+        <v>2098</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>433</v>
+      </c>
+      <c r="O104" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5549,7 +5612,7 @@
         <v>2107</v>
       </c>
       <c r="F106">
-        <f t="shared" ref="F106" si="4">(2133-E106)</f>
+        <f t="shared" ref="F106:F107" si="4">(2133-E106)</f>
         <v>26</v>
       </c>
       <c r="G106" s="2">
@@ -5565,55 +5628,88 @@
         <v>431</v>
       </c>
     </row>
+    <row r="107" spans="1:15">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C107" t="s">
+        <v>436</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>2106</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>437</v>
+      </c>
+      <c r="O107" t="s">
+        <v>406</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="vanesa-novitasari"/>
-    <hyperlink ref="B7" r:id="rId2" location="gamanto-prasetyo"/>
-    <hyperlink ref="B13" r:id="rId3" location="dinda-kusmawati"/>
-    <hyperlink ref="B16" r:id="rId4" location="purwa-thamrin"/>
-    <hyperlink ref="B18" r:id="rId5" location="rachel-novitasari"/>
-    <hyperlink ref="B25" r:id="rId6" location="kuncara-hidayanto"/>
-    <hyperlink ref="B26" r:id="rId7" location="bakda-gunarto"/>
-    <hyperlink ref="B27" r:id="rId8" location="laksana-hidayat"/>
-    <hyperlink ref="B28" r:id="rId9" location="dono-sitorus"/>
-    <hyperlink ref="B29" r:id="rId10" location="diana-laksmiwati"/>
-    <hyperlink ref="B91" r:id="rId11" location="gading-mangunsong"/>
-    <hyperlink ref="B76" r:id="rId12" location="lantar-putra"/>
-    <hyperlink ref="B96" r:id="rId13" location="zulaikha-namaga"/>
-    <hyperlink ref="B100" r:id="rId14" location="tania-aryani"/>
-    <hyperlink ref="B80" r:id="rId15" location="keisha-andriani"/>
-    <hyperlink ref="B47" r:id="rId16" location="nyoman-saragih"/>
-    <hyperlink ref="B48" r:id="rId17" location="marsudi-sihotang"/>
-    <hyperlink ref="B49" r:id="rId18" location="wulan-pertiwi"/>
-    <hyperlink ref="B50" r:id="rId19" location="faizah-anggraini"/>
-    <hyperlink ref="B51" r:id="rId20" location="zulaikha-widiastuti"/>
-    <hyperlink ref="B55" r:id="rId21" location="mahmud-nashiruddin"/>
-    <hyperlink ref="B84" r:id="rId22" location="lidya-winarsih"/>
-    <hyperlink ref="B88" r:id="rId23" location="lidya-utami"/>
-    <hyperlink ref="B44" r:id="rId24" location="hartaka-situmorang"/>
-    <hyperlink ref="B68" r:id="rId25" location="agus-habibi"/>
-    <hyperlink ref="B78" r:id="rId26" location="agus-habibi"/>
-    <hyperlink ref="B35" r:id="rId27" location="daruna-saragih"/>
-    <hyperlink ref="B85" r:id="rId28" location="ozy-nugroho"/>
-    <hyperlink ref="B86" r:id="rId29" location="alambana-sirait"/>
-    <hyperlink ref="B97" r:id="rId30" location="lili-nurdiyanti"/>
-    <hyperlink ref="B94" r:id="rId31" location="putu-ramadan"/>
-    <hyperlink ref="B38" r:id="rId32" location="raina-wahyuni"/>
-    <hyperlink ref="B62" r:id="rId33" location="atma-hutasoit"/>
-    <hyperlink ref="B54" r:id="rId34" location="ibrahim-mustofa"/>
-    <hyperlink ref="B72" r:id="rId35" location="ulva-mayasari"/>
-    <hyperlink ref="B81" r:id="rId36" location="artanto-kurniawan"/>
-    <hyperlink ref="B63" r:id="rId37" location="garda-wasita"/>
-    <hyperlink ref="B79" r:id="rId38" location="lalita-pertiwi"/>
-    <hyperlink ref="B59" r:id="rId39" location="himawan-maryadi"/>
-    <hyperlink ref="B77" r:id="rId40" location="yani-pudjiastuti"/>
-    <hyperlink ref="B36" r:id="rId41" location="umar-ramadan"/>
-    <hyperlink ref="B98" r:id="rId42" location="mariadi-hutagalung"/>
-    <hyperlink ref="B52" r:id="rId43" location="diana-farida"/>
-    <hyperlink ref="B57" r:id="rId44" location="dipa-halim"/>
-    <hyperlink ref="B65" r:id="rId45" location="dartono-samosir"/>
-    <hyperlink ref="B67" r:id="rId46" location="rahmi-nasyiah"/>
-    <hyperlink ref="B69" r:id="rId47" location="ina-melani"/>
+    <hyperlink ref="B17" r:id="rId1" location="vanesa-novitasari" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" location="gamanto-prasetyo" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B13" r:id="rId3" location="dinda-kusmawati" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" location="purwa-thamrin" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B18" r:id="rId5" location="rachel-novitasari" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B25" r:id="rId6" location="kuncara-hidayanto" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B26" r:id="rId7" location="bakda-gunarto" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B27" r:id="rId8" location="laksana-hidayat" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B28" r:id="rId9" location="dono-sitorus" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B29" r:id="rId10" location="diana-laksmiwati" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B91" r:id="rId11" location="gading-mangunsong" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B76" r:id="rId12" location="lantar-putra" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B96" r:id="rId13" location="zulaikha-namaga" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B100" r:id="rId14" location="tania-aryani" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B80" r:id="rId15" location="keisha-andriani" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B47" r:id="rId16" location="nyoman-saragih" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B48" r:id="rId17" location="marsudi-sihotang" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B49" r:id="rId18" location="wulan-pertiwi" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B50" r:id="rId19" location="faizah-anggraini" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B51" r:id="rId20" location="zulaikha-widiastuti" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B55" r:id="rId21" location="mahmud-nashiruddin" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B84" r:id="rId22" location="lidya-winarsih" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B88" r:id="rId23" location="lidya-utami" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B44" r:id="rId24" location="hartaka-situmorang" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B68" r:id="rId25" location="agus-habibi" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B78" r:id="rId26" location="agus-habibi" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B35" r:id="rId27" location="daruna-saragih" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B85" r:id="rId28" location="ozy-nugroho" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B86" r:id="rId29" location="alambana-sirait" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B97" r:id="rId30" location="lili-nurdiyanti" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B94" r:id="rId31" location="putu-ramadan" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B38" r:id="rId32" location="raina-wahyuni" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B62" r:id="rId33" location="atma-hutasoit" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B54" r:id="rId34" location="ibrahim-mustofa" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B72" r:id="rId35" location="ulva-mayasari" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B81" r:id="rId36" location="artanto-kurniawan" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B63" r:id="rId37" location="garda-wasita" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B79" r:id="rId38" location="lalita-pertiwi" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B59" r:id="rId39" location="himawan-maryadi" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B77" r:id="rId40" location="yani-pudjiastuti" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B36" r:id="rId41" location="umar-ramadan" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B98" r:id="rId42" location="mariadi-hutagalung" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B52" r:id="rId43" location="diana-farida" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B57" r:id="rId44" location="dipa-halim" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B65" r:id="rId45" location="dartono-samosir" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B67" r:id="rId46" location="rahmi-nasyiah" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B69" r:id="rId47" location="ina-melani" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dare/posthuman-text/out_there/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ACD47A-FD47-734E-BAFA-E0752AAB48DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="444">
   <si>
     <t>#</t>
   </si>
@@ -1308,9 +1302,6 @@
     <t>labrateknikko</t>
   </si>
   <si>
-    <t>taiteien opiskelija</t>
-  </si>
-  <si>
     <t>Gabriela Indemar</t>
   </si>
   <si>
@@ -1335,17 +1326,38 @@
     <t>Taman Sari</t>
   </si>
   <si>
-    <t>korkean paikan hitsaaja</t>
-  </si>
-  <si>
     <t>mekaniikka</t>
+  </si>
+  <si>
+    <t>Fajar Setiawan</t>
+  </si>
+  <si>
+    <t>musiikin opiskelija</t>
+  </si>
+  <si>
+    <t>musiikki</t>
+  </si>
+  <si>
+    <t>löytää paikkansa maailmassa</t>
+  </si>
+  <si>
+    <t>Dravid Klumm</t>
+  </si>
+  <si>
+    <t>labrapäällikkö / Pikiran</t>
+  </si>
+  <si>
+    <t>laboratoriotekniikka</t>
+  </si>
+  <si>
+    <t>huoltoteknikko / Pikiran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1437,7 +1449,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1464,6 +1476,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1476,7 +1490,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1493,6 +1507,8 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1838,15 +1854,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="3" customWidth="1"/>
@@ -1861,7 +1877,7 @@
     <col min="15" max="15" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2712,7 +2728,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="15">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2749,7 +2765,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2780,7 +2796,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2814,7 +2830,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2848,7 +2864,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3052,7 +3068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="15">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3092,7 +3108,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3163,7 +3179,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3379,7 +3395,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3496,7 +3512,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="15">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3530,7 +3546,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="15">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3564,7 +3580,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3595,7 +3611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3635,7 +3651,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3672,7 +3688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3743,7 +3759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3786,7 +3802,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3854,7 +3870,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3931,7 +3947,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -4042,7 +4058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" ht="15">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -4079,7 +4095,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="15">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4155,7 +4171,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="15">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4229,7 +4245,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="15">
       <c r="A67">
         <f t="shared" ref="A67:A101" si="2">ROW()-1</f>
         <v>66</v>
@@ -4247,7 +4263,7 @@
         <v>2113</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F104" si="3">(2133-E67)</f>
+        <f t="shared" ref="F67:F105" si="3">(2133-E67)</f>
         <v>20</v>
       </c>
       <c r="G67" s="2">
@@ -4265,7 +4281,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="15">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
@@ -4299,7 +4315,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="15">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
@@ -4409,7 +4425,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="15">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
@@ -4553,7 +4569,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="15">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
@@ -4587,7 +4603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="15">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
@@ -4626,7 +4642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="15">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
@@ -4663,7 +4679,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="15">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
@@ -4697,7 +4713,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="15">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
@@ -4731,7 +4747,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" ht="15">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -4839,7 +4855,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" ht="15">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
@@ -4873,7 +4889,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" ht="15">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
@@ -4909,7 +4925,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" ht="15">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
@@ -4977,7 +4993,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" ht="15">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
@@ -5079,7 +5095,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="15">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
@@ -5184,7 +5200,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="15">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
@@ -5255,7 +5271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="15">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
@@ -5289,7 +5305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="15">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
@@ -5326,7 +5342,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" ht="15">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
@@ -5403,7 +5419,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="15">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
@@ -5553,7 +5569,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C104" t="s">
         <v>426</v>
@@ -5581,18 +5597,43 @@
         <v>1</v>
       </c>
       <c r="N104" t="s">
+        <v>432</v>
+      </c>
+      <c r="O104" t="s">
         <v>433</v>
-      </c>
-      <c r="O104" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105">
         <v>104</v>
       </c>
+      <c r="B105" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="C105" t="s">
-        <v>427</v>
+        <v>437</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>2110</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="N105" t="s">
+        <v>438</v>
+      </c>
+      <c r="O105" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5600,19 +5641,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C106" t="s">
         <v>220</v>
       </c>
       <c r="D106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E106">
         <v>2107</v>
       </c>
       <c r="F106">
-        <f t="shared" ref="F106:F107" si="4">(2133-E106)</f>
+        <f t="shared" ref="F106:F108" si="4">(2133-E106)</f>
         <v>26</v>
       </c>
       <c r="G106" s="2">
@@ -5622,10 +5663,10 @@
         <v>1</v>
       </c>
       <c r="N106" t="s">
+        <v>429</v>
+      </c>
+      <c r="O106" t="s">
         <v>430</v>
-      </c>
-      <c r="O106" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:15">
@@ -5633,10 +5674,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C107" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -5655,61 +5696,91 @@
         <v>1</v>
       </c>
       <c r="N107" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O107" t="s">
         <v>406</v>
       </c>
     </row>
+    <row r="108" spans="1:15">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C108" t="s">
+        <v>441</v>
+      </c>
+      <c r="D108" t="s">
+        <v>51</v>
+      </c>
+      <c r="E108">
+        <v>2100</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="G108" s="2">
+        <v>1</v>
+      </c>
+      <c r="N108" t="s">
+        <v>442</v>
+      </c>
+      <c r="O108" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="vanesa-novitasari" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B7" r:id="rId2" location="gamanto-prasetyo" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B13" r:id="rId3" location="dinda-kusmawati" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B16" r:id="rId4" location="purwa-thamrin" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B18" r:id="rId5" location="rachel-novitasari" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B25" r:id="rId6" location="kuncara-hidayanto" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B26" r:id="rId7" location="bakda-gunarto" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B27" r:id="rId8" location="laksana-hidayat" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B28" r:id="rId9" location="dono-sitorus" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B29" r:id="rId10" location="diana-laksmiwati" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B91" r:id="rId11" location="gading-mangunsong" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B76" r:id="rId12" location="lantar-putra" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B96" r:id="rId13" location="zulaikha-namaga" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B100" r:id="rId14" location="tania-aryani" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B80" r:id="rId15" location="keisha-andriani" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B47" r:id="rId16" location="nyoman-saragih" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B48" r:id="rId17" location="marsudi-sihotang" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B49" r:id="rId18" location="wulan-pertiwi" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B50" r:id="rId19" location="faizah-anggraini" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B51" r:id="rId20" location="zulaikha-widiastuti" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B55" r:id="rId21" location="mahmud-nashiruddin" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B84" r:id="rId22" location="lidya-winarsih" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B88" r:id="rId23" location="lidya-utami" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B44" r:id="rId24" location="hartaka-situmorang" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B68" r:id="rId25" location="agus-habibi" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B78" r:id="rId26" location="agus-habibi" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B35" r:id="rId27" location="daruna-saragih" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B85" r:id="rId28" location="ozy-nugroho" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B86" r:id="rId29" location="alambana-sirait" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B97" r:id="rId30" location="lili-nurdiyanti" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B94" r:id="rId31" location="putu-ramadan" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B38" r:id="rId32" location="raina-wahyuni" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B62" r:id="rId33" location="atma-hutasoit" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B54" r:id="rId34" location="ibrahim-mustofa" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B72" r:id="rId35" location="ulva-mayasari" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B81" r:id="rId36" location="artanto-kurniawan" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B63" r:id="rId37" location="garda-wasita" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B79" r:id="rId38" location="lalita-pertiwi" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B59" r:id="rId39" location="himawan-maryadi" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B77" r:id="rId40" location="yani-pudjiastuti" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B36" r:id="rId41" location="umar-ramadan" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B98" r:id="rId42" location="mariadi-hutagalung" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B52" r:id="rId43" location="diana-farida" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B57" r:id="rId44" location="dipa-halim" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B65" r:id="rId45" location="dartono-samosir" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B67" r:id="rId46" location="rahmi-nasyiah" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B69" r:id="rId47" location="ina-melani" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B17" r:id="rId1" location="vanesa-novitasari"/>
+    <hyperlink ref="B7" r:id="rId2" location="gamanto-prasetyo"/>
+    <hyperlink ref="B13" r:id="rId3" location="dinda-kusmawati"/>
+    <hyperlink ref="B16" r:id="rId4" location="purwa-thamrin"/>
+    <hyperlink ref="B18" r:id="rId5" location="rachel-novitasari"/>
+    <hyperlink ref="B25" r:id="rId6" location="kuncara-hidayanto"/>
+    <hyperlink ref="B26" r:id="rId7" location="bakda-gunarto"/>
+    <hyperlink ref="B27" r:id="rId8" location="laksana-hidayat"/>
+    <hyperlink ref="B28" r:id="rId9" location="dono-sitorus"/>
+    <hyperlink ref="B29" r:id="rId10" location="diana-laksmiwati"/>
+    <hyperlink ref="B91" r:id="rId11" location="gading-mangunsong"/>
+    <hyperlink ref="B76" r:id="rId12" location="lantar-putra"/>
+    <hyperlink ref="B96" r:id="rId13" location="zulaikha-namaga"/>
+    <hyperlink ref="B100" r:id="rId14" location="tania-aryani"/>
+    <hyperlink ref="B80" r:id="rId15" location="keisha-andriani"/>
+    <hyperlink ref="B47" r:id="rId16" location="nyoman-saragih"/>
+    <hyperlink ref="B48" r:id="rId17" location="marsudi-sihotang"/>
+    <hyperlink ref="B49" r:id="rId18" location="wulan-pertiwi"/>
+    <hyperlink ref="B50" r:id="rId19" location="faizah-anggraini"/>
+    <hyperlink ref="B51" r:id="rId20" location="zulaikha-widiastuti"/>
+    <hyperlink ref="B55" r:id="rId21" location="mahmud-nashiruddin"/>
+    <hyperlink ref="B84" r:id="rId22" location="lidya-winarsih"/>
+    <hyperlink ref="B88" r:id="rId23" location="lidya-utami"/>
+    <hyperlink ref="B44" r:id="rId24" location="hartaka-situmorang"/>
+    <hyperlink ref="B68" r:id="rId25" location="agus-habibi"/>
+    <hyperlink ref="B78" r:id="rId26" location="agus-habibi"/>
+    <hyperlink ref="B35" r:id="rId27" location="daruna-saragih"/>
+    <hyperlink ref="B85" r:id="rId28" location="ozy-nugroho"/>
+    <hyperlink ref="B86" r:id="rId29" location="alambana-sirait"/>
+    <hyperlink ref="B97" r:id="rId30" location="lili-nurdiyanti"/>
+    <hyperlink ref="B94" r:id="rId31" location="putu-ramadan"/>
+    <hyperlink ref="B38" r:id="rId32" location="raina-wahyuni"/>
+    <hyperlink ref="B62" r:id="rId33" location="atma-hutasoit"/>
+    <hyperlink ref="B54" r:id="rId34" location="ibrahim-mustofa"/>
+    <hyperlink ref="B72" r:id="rId35" location="ulva-mayasari"/>
+    <hyperlink ref="B81" r:id="rId36" location="artanto-kurniawan"/>
+    <hyperlink ref="B63" r:id="rId37" location="garda-wasita"/>
+    <hyperlink ref="B79" r:id="rId38" location="lalita-pertiwi"/>
+    <hyperlink ref="B59" r:id="rId39" location="himawan-maryadi"/>
+    <hyperlink ref="B77" r:id="rId40" location="yani-pudjiastuti"/>
+    <hyperlink ref="B36" r:id="rId41" location="umar-ramadan"/>
+    <hyperlink ref="B98" r:id="rId42" location="mariadi-hutagalung"/>
+    <hyperlink ref="B52" r:id="rId43" location="diana-farida"/>
+    <hyperlink ref="B57" r:id="rId44" location="dipa-halim"/>
+    <hyperlink ref="B65" r:id="rId45" location="dartono-samosir"/>
+    <hyperlink ref="B67" r:id="rId46" location="rahmi-nasyiah"/>
+    <hyperlink ref="B69" r:id="rId47" location="ina-melani"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -1479,7 +1479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1489,6 +1489,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="28">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1858,8 +1859,8 @@
   <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G101" sqref="G101"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3213,37 +3214,37 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
+    <row r="39" spans="1:15" s="9" customFormat="1">
+      <c r="A39" s="9">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="9">
         <v>2083</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="9">
         <v>2</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
+      <c r="N39" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="9" t="s">
         <v>350</v>
       </c>
     </row>

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Egot" sheetId="1" r:id="rId1"/>
+    <sheet name="Kuoriniput" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="472">
   <si>
     <t>#</t>
   </si>
@@ -1351,13 +1352,97 @@
   </si>
   <si>
     <t>huoltoteknikko / Pikiran</t>
+  </si>
+  <si>
+    <t>Sijainti</t>
+  </si>
+  <si>
+    <t>WT, N cargo</t>
+  </si>
+  <si>
+    <t>Ralph Howard</t>
+  </si>
+  <si>
+    <t>sotilas</t>
+  </si>
+  <si>
+    <t>selviytyminen</t>
+  </si>
+  <si>
+    <t>Tina Coppersmith</t>
+  </si>
+  <si>
+    <t>sotilas, uhkapelit</t>
+  </si>
+  <si>
+    <t>sotilas, kung fu</t>
+  </si>
+  <si>
+    <t>käskyt</t>
+  </si>
+  <si>
+    <t>Kuolema</t>
+  </si>
+  <si>
+    <t>Calvin Accadi</t>
+  </si>
+  <si>
+    <t>sotilas, elektroniikka</t>
+  </si>
+  <si>
+    <t>Holly Unger</t>
+  </si>
+  <si>
+    <t>sotilas, alusjärjestelmät</t>
+  </si>
+  <si>
+    <t>kaverit</t>
+  </si>
+  <si>
+    <t>AJ, E cargo</t>
+  </si>
+  <si>
+    <t>Onnettomuus</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Rathana Thammavong</t>
+  </si>
+  <si>
+    <t>Kam Thannavong</t>
+  </si>
+  <si>
+    <t>Lakitieteen professori</t>
+  </si>
+  <si>
+    <t>Hallinnon suunnittelija</t>
+  </si>
+  <si>
+    <t>juridiikka, yliopisto-opetus</t>
+  </si>
+  <si>
+    <t>byrokratia</t>
+  </si>
+  <si>
+    <t>uusi elämä, perhe</t>
+  </si>
+  <si>
+    <t>TG, kapt. hytti</t>
+  </si>
+  <si>
+    <t>Teloitus</t>
+  </si>
+  <si>
+    <t>Taistelubotti</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1425,6 +1510,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1449,7 +1542,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1478,8 +1571,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1490,8 +1584,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1510,6 +1605,7 @@
     <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1858,9 +1954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2247,40 +2343,40 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
+    <row r="11" spans="1:17" s="9" customFormat="1">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>2077</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="9">
         <v>3</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="O11" t="s">
+      <c r="O11" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5164,40 +5260,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
-      <c r="A93">
+    <row r="93" spans="1:15" s="9" customFormat="1">
+      <c r="A93" s="9">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="9">
         <v>2090</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="9">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="10">
         <v>0</v>
       </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="L93">
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="L93" s="9">
         <v>-1</v>
       </c>
-      <c r="N93" t="s">
+      <c r="N93" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O93" t="s">
+      <c r="O93" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5791,4 +5887,1300 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="13" width="4.1640625" customWidth="1"/>
+    <col min="14" max="14" width="27.5" customWidth="1"/>
+    <col min="15" max="15" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>2111</v>
+      </c>
+      <c r="F2">
+        <f>(2133-E2)</f>
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>450</v>
+      </c>
+      <c r="O2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>2110</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F25" si="1">(2133-E3)</f>
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>451</v>
+      </c>
+      <c r="O3" t="s">
+        <v>452</v>
+      </c>
+      <c r="P3" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>2112</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>455</v>
+      </c>
+      <c r="O4" t="s">
+        <v>448</v>
+      </c>
+      <c r="P4" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>2112</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>457</v>
+      </c>
+      <c r="O5" t="s">
+        <v>458</v>
+      </c>
+      <c r="P5" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E6">
+        <v>2086</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O6" t="s">
+        <v>468</v>
+      </c>
+      <c r="P6" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7">
+        <v>2083</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>467</v>
+      </c>
+      <c r="O7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="15">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="15">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="15">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" ht="15">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" ht="15">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" s="9" customFormat="1">
+      <c r="A39" s="9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+    </row>
+    <row r="48" spans="1:2" ht="15">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:13" ht="15">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:13" ht="15">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" ht="15">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" ht="15">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" ht="15">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" ht="15">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" ht="15">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" ht="15">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" ht="15">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" ht="15">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" ht="15">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" ht="15">
+      <c r="A67">
+        <f t="shared" ref="A67:A101" si="2">ROW()-1</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" ht="15">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" ht="15">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" ht="15">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" ht="15">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" ht="15">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" ht="15">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" ht="15">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" ht="15">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="4"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" spans="1:10" ht="15">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+    </row>
+    <row r="84" spans="1:10" ht="15">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:10" ht="15">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+    </row>
+    <row r="86" spans="1:10" ht="15">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="15">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+    </row>
+    <row r="91" spans="1:10" ht="15">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+    </row>
+    <row r="94" spans="1:10" ht="15">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:10" ht="15">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+    </row>
+    <row r="97" spans="1:10" ht="15">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:10" ht="15">
+      <c r="A98">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+    </row>
+    <row r="100" spans="1:10" ht="15">
+      <c r="A100">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="4"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="3560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Egot" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="478">
   <si>
     <t>#</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>Sijainti</t>
   </si>
   <si>
-    <t>WT, N cargo</t>
-  </si>
-  <si>
     <t>Ralph Howard</t>
   </si>
   <si>
@@ -1436,6 +1433,27 @@
   </si>
   <si>
     <t>Taistelubotti</t>
+  </si>
+  <si>
+    <t>Adi Rambuka</t>
+  </si>
+  <si>
+    <t>rahtiteknikko</t>
+  </si>
+  <si>
+    <t>robottimorfien kauko-ohjaus</t>
+  </si>
+  <si>
+    <t>perhe, rikastuminen</t>
+  </si>
+  <si>
+    <t>WT, crew</t>
+  </si>
+  <si>
+    <t>Laser alukseen</t>
+  </si>
+  <si>
+    <t>WT, C cargo</t>
   </si>
 </sst>
 </file>
@@ -1542,7 +1560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1572,6 +1590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1586,7 +1605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="30">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1606,6 +1625,7 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1955,8 +1975,8 @@
   <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J93" sqref="J93"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5893,9 +5913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5963,7 +5983,7 @@
         <v>444</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5972,10 +5992,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" t="s">
         <v>446</v>
-      </c>
-      <c r="C2" t="s">
-        <v>447</v>
       </c>
       <c r="D2" t="s">
         <v>44</v>
@@ -5997,16 +6017,16 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="O2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P2" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="Q2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6015,10 +6035,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D3" t="s">
         <v>44</v>
@@ -6040,16 +6060,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>450</v>
+      </c>
+      <c r="O3" t="s">
         <v>451</v>
       </c>
-      <c r="O3" t="s">
-        <v>452</v>
-      </c>
       <c r="P3" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="Q3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6058,10 +6078,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -6083,16 +6103,16 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P4" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="Q4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -6101,10 +6121,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -6129,16 +6149,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>456</v>
+      </c>
+      <c r="O5" t="s">
         <v>457</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>458</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>459</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -6147,13 +6167,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E6">
         <v>2086</v>
@@ -6172,16 +6192,16 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O6" t="s">
+        <v>467</v>
+      </c>
+      <c r="P6" t="s">
         <v>468</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>469</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -6190,13 +6210,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E7">
         <v>2083</v>
@@ -6208,20 +6228,23 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7" t="s">
+        <v>466</v>
+      </c>
+      <c r="O7" t="s">
         <v>467</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>468</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>469</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -6229,10 +6252,42 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>2109</v>
+      </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>2133</v>
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>473</v>
+      </c>
+      <c r="O8" t="s">
+        <v>474</v>
+      </c>
+      <c r="P8" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17">

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="3000" windowWidth="25840" windowHeight="20940" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Egot" sheetId="1" r:id="rId1"/>
-    <sheet name="Kuoriniput" sheetId="2" r:id="rId2"/>
+    <sheet name="Laivue" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="543">
   <si>
     <t>#</t>
   </si>
@@ -1378,9 +1378,6 @@
     <t>käskyt</t>
   </si>
   <si>
-    <t>Kuolema</t>
-  </si>
-  <si>
     <t>Calvin Accadi</t>
   </si>
   <si>
@@ -1454,6 +1451,204 @@
   </si>
   <si>
     <t>WT, C cargo</t>
+  </si>
+  <si>
+    <t>TG, lääkintä</t>
+  </si>
+  <si>
+    <t>Jude Tanner</t>
+  </si>
+  <si>
+    <t>sotilas, valtaustoiminta</t>
+  </si>
+  <si>
+    <t>seikkailu</t>
+  </si>
+  <si>
+    <t>Fijiläinen kommando</t>
+  </si>
+  <si>
+    <t>Kuolinsyy</t>
+  </si>
+  <si>
+    <t>Kuolinaika</t>
+  </si>
+  <si>
+    <t>Ash McGill</t>
+  </si>
+  <si>
+    <t>sotilas, kapteeni</t>
+  </si>
+  <si>
+    <t>upseeri, sotapelit</t>
+  </si>
+  <si>
+    <t>Frag, kad. Punch</t>
+  </si>
+  <si>
+    <t>sotilas, pursimies</t>
+  </si>
+  <si>
+    <t>Mura Takeno</t>
+  </si>
+  <si>
+    <t>opistoupseeri, botaniikka</t>
+  </si>
+  <si>
+    <t>Alus</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>metallurgi</t>
+  </si>
+  <si>
+    <t>Sarwono Ernalia</t>
+  </si>
+  <si>
+    <t>materiaalitiede, erätaidot</t>
+  </si>
+  <si>
+    <t>uusi elämä, raha</t>
+  </si>
+  <si>
+    <t>kaasu</t>
+  </si>
+  <si>
+    <t>Jarot Lestari</t>
+  </si>
+  <si>
+    <t>kommandoisku</t>
+  </si>
+  <si>
+    <t>rahtikapteeni</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>spacer, perhediplomatia</t>
+  </si>
+  <si>
+    <t>polyperhe, pelisuunnittelu</t>
+  </si>
+  <si>
+    <t>perhe, maalaiselämä</t>
+  </si>
+  <si>
+    <t>Mikhail Timyenko</t>
+  </si>
+  <si>
+    <t>sosiologian professori</t>
+  </si>
+  <si>
+    <t>yhteiskuntatiede, yliopistopolitiikka</t>
+  </si>
+  <si>
+    <t>yhteiskunta, sosiaalinen oikeudenmukaisuus</t>
+  </si>
+  <si>
+    <t>Evita Santangeli</t>
+  </si>
+  <si>
+    <t>seikkailu-urheilija</t>
+  </si>
+  <si>
+    <t>vuorikiipeily, esiintyminen</t>
+  </si>
+  <si>
+    <t>seikkailu, raha, kuuluisuus</t>
+  </si>
+  <si>
+    <t>ihmiskilpi</t>
+  </si>
+  <si>
+    <t>Raquel Losada</t>
+  </si>
+  <si>
+    <t>TG, hytti</t>
+  </si>
+  <si>
+    <t>hiilidioksidimyrkytys</t>
+  </si>
+  <si>
+    <t>opiskelija</t>
+  </si>
+  <si>
+    <t>liiketalous, maastopyöräily</t>
+  </si>
+  <si>
+    <t>takaisin Maahan</t>
+  </si>
+  <si>
+    <t>AJ, kapt. hytti</t>
+  </si>
+  <si>
+    <t>Eiko Akamura</t>
+  </si>
+  <si>
+    <t>tietotekniikkainsinööri</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>tietotekniikka, mikropainovoimaurheilu</t>
+  </si>
+  <si>
+    <t>menestys</t>
+  </si>
+  <si>
+    <t>Yoichi Nataga</t>
+  </si>
+  <si>
+    <t>senior exec</t>
+  </si>
+  <si>
+    <t>yrityshallinto, protokolla</t>
+  </si>
+  <si>
+    <t>teloitus</t>
+  </si>
+  <si>
+    <t>Mark Belway</t>
+  </si>
+  <si>
+    <t>NA, virtuaalimaailma</t>
+  </si>
+  <si>
+    <t>sotilas, tietotekniikka</t>
+  </si>
+  <si>
+    <t>yliopistostipendi</t>
+  </si>
+  <si>
+    <t>failed egocast</t>
+  </si>
+  <si>
+    <t>Berting del Rosario</t>
+  </si>
+  <si>
+    <t>Cristina Tiong</t>
+  </si>
+  <si>
+    <t>rakennusinsinööri</t>
+  </si>
+  <si>
+    <t>tierakennus, eräretkeily</t>
+  </si>
+  <si>
+    <t>tekninen projektipäällikkö</t>
+  </si>
+  <si>
+    <t>hallinto, eräretkeily</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1755,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1591,8 +1786,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1604,8 +1813,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1626,6 +1837,20 @@
     <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1975,8 +2200,8 @@
   <dimension ref="A1:Q108"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B107" sqref="B107"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5911,11 +6136,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5923,17 +6150,18 @@
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" customWidth="1"/>
-    <col min="10" max="13" width="4.1640625" customWidth="1"/>
-    <col min="14" max="14" width="27.5" customWidth="1"/>
-    <col min="15" max="15" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" customWidth="1"/>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" customWidth="1"/>
+    <col min="9" max="9" width="4.1640625" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" customWidth="1"/>
+    <col min="11" max="14" width="4.1640625" customWidth="1"/>
+    <col min="15" max="15" width="27.5" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5944,49 +6172,55 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <f>ROW()-1</f>
         <v>1</v>
@@ -5998,38 +6232,44 @@
         <v>446</v>
       </c>
       <c r="D2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2111</v>
       </c>
-      <c r="F2">
-        <f>(2133-E2)</f>
+      <c r="G2">
+        <f>(2133-F2)</f>
         <v>22</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>449</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>447</v>
       </c>
-      <c r="P2" t="s">
-        <v>477</v>
-      </c>
       <c r="Q2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>476</v>
+      </c>
+      <c r="R2" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
@@ -6041,483 +6281,1057 @@
         <v>446</v>
       </c>
       <c r="D3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2110</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F25" si="1">(2133-E3)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" si="1">(2133-F3)</f>
         <v>23</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>450</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>451</v>
       </c>
-      <c r="P3" t="s">
-        <v>477</v>
-      </c>
       <c r="Q3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>476</v>
+      </c>
+      <c r="R3" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C4" t="s">
         <v>446</v>
       </c>
       <c r="D4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2112</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>21</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>453</v>
+      </c>
+      <c r="P4" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>476</v>
+      </c>
+      <c r="R4" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="O4" t="s">
-        <v>447</v>
-      </c>
-      <c r="P4" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="C5" t="s">
         <v>446</v>
       </c>
       <c r="D5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2112</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>21</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>455</v>
+      </c>
+      <c r="P5" t="s">
         <v>456</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>457</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" s="11">
+        <v>85712</v>
+      </c>
+      <c r="S5" t="s">
         <v>458</v>
       </c>
-      <c r="Q5" t="s">
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" t="s">
+        <v>493</v>
+      </c>
+      <c r="E6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6">
+        <v>2086</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>464</v>
+      </c>
+      <c r="P6" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>477</v>
+      </c>
+      <c r="R6" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>463</v>
       </c>
-      <c r="D6" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6">
-        <v>2086</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="D7" t="s">
+        <v>493</v>
+      </c>
+      <c r="E7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F7">
+        <v>2083</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
         <v>465</v>
       </c>
-      <c r="O6" t="s">
-        <v>467</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="P7" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>477</v>
+      </c>
+      <c r="R7" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S7" t="s">
         <v>468</v>
       </c>
-      <c r="Q6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D7" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7">
-        <v>2083</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>466</v>
-      </c>
-      <c r="O7" t="s">
-        <v>467</v>
-      </c>
-      <c r="P7" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" t="s">
         <v>471</v>
       </c>
-      <c r="C8" t="s">
-        <v>472</v>
-      </c>
       <c r="D8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2109</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>24</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>472</v>
+      </c>
+      <c r="P8" t="s">
         <v>473</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>474</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S8" t="s">
         <v>475</v>
       </c>
-      <c r="Q8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
       <c r="F9">
+        <v>2111</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>479</v>
+      </c>
+      <c r="P9" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>477</v>
+      </c>
+      <c r="R9" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>2100</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>486</v>
+      </c>
+      <c r="P10" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>467</v>
+      </c>
+      <c r="R10" s="11">
+        <v>48853</v>
+      </c>
+      <c r="S10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="C11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>2092</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>490</v>
+      </c>
+      <c r="P11" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>467</v>
+      </c>
+      <c r="R11" s="11">
+        <v>48853</v>
+      </c>
+      <c r="S11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" t="s">
+        <v>493</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>2090</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>497</v>
+      </c>
+      <c r="P12" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>477</v>
+      </c>
+      <c r="R12" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S12" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" t="s">
+        <v>502</v>
+      </c>
+      <c r="D13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>2088</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>504</v>
+      </c>
+      <c r="P13" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>522</v>
+      </c>
+      <c r="R13" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S13" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C14" t="s">
+        <v>508</v>
+      </c>
+      <c r="D14" t="s">
+        <v>493</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>2082</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>509</v>
+      </c>
+      <c r="P14" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>477</v>
+      </c>
+      <c r="R14" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" t="s">
+        <v>493</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15">
+        <v>2099</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>513</v>
+      </c>
+      <c r="P15" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>477</v>
+      </c>
+      <c r="R15" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="C16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16">
+        <v>2111</v>
+      </c>
+      <c r="G16">
+        <f>(2135-F16)</f>
+        <v>24</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>520</v>
+      </c>
+      <c r="P16" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>517</v>
+      </c>
+      <c r="R16" s="11">
+        <v>86046</v>
+      </c>
+      <c r="S16" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C17" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" t="s">
+        <v>525</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>2095</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>526</v>
+      </c>
+      <c r="P17" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>522</v>
+      </c>
+      <c r="R17" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S17" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C18" t="s">
+        <v>529</v>
+      </c>
+      <c r="D18" t="s">
+        <v>525</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>2062</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>530</v>
+      </c>
+      <c r="P18" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>477</v>
+      </c>
+      <c r="R18" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="F10">
+    <row r="20" spans="1:19" ht="15">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" t="s">
+        <v>493</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20">
+        <v>2097</v>
+      </c>
+      <c r="G20">
+        <f>(2135-F20)</f>
+        <v>38</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>542</v>
+      </c>
+      <c r="P20" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>517</v>
+      </c>
+      <c r="R20" s="11">
+        <v>12997</v>
+      </c>
+      <c r="S20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="F11">
+    <row r="22" spans="1:19">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="F12">
+    <row r="23" spans="1:19">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="F13">
+    <row r="24" spans="1:19">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="F14">
+    <row r="25" spans="1:19" ht="15">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>2133</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <f t="shared" si="0"/>
+    <row r="26" spans="1:19" ht="15">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D26" t="s">
+        <v>492</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26">
+        <v>2111</v>
+      </c>
+      <c r="G26">
+        <f>(2134-F26)</f>
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="F24">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="F25">
-        <f t="shared" si="1"/>
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>534</v>
+      </c>
+      <c r="P26" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>533</v>
+      </c>
+      <c r="R26" s="11">
+        <v>12571</v>
+      </c>
+      <c r="S26" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" ht="15">
+      <c r="B27" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C27" t="s">
+        <v>541</v>
+      </c>
+      <c r="D27" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27">
+        <v>2097</v>
+      </c>
+      <c r="G27">
+        <f>(2135-F27)</f>
+        <v>38</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>542</v>
+      </c>
+      <c r="P27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>533</v>
+      </c>
+      <c r="R27" s="11">
+        <v>12905</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="15">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="15">
+      <c r="B28" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C28" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" t="s">
+        <v>493</v>
+      </c>
+      <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>2100</v>
+      </c>
+      <c r="G28">
+        <f>(2135-F28)</f>
+        <v>35</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>540</v>
+      </c>
+      <c r="P28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>533</v>
+      </c>
+      <c r="R28" s="11">
+        <v>12905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:19">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:19">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:19">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6627,607 +7441,607 @@
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:13" ht="15">
+    <row r="49" spans="1:14" ht="15">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:13" ht="15">
+    <row r="50" spans="1:14" ht="15">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="15">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="15">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:13" ht="15">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:14" ht="15">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="4"/>
-      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" ht="15">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:14" ht="15">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="4"/>
-      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" ht="15">
+      <c r="K54" s="2"/>
+      <c r="N54" s="2"/>
+    </row>
+    <row r="55" spans="1:14" ht="15">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="4"/>
-      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" ht="15">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:14" ht="15">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="4"/>
-      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" ht="15">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:14" ht="15">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:13" ht="15">
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:14" ht="15">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="4"/>
-      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:13" ht="15">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" ht="15">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="15">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" ht="15">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" ht="15">
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" ht="15">
       <c r="A67">
         <f t="shared" ref="A67:A101" si="2">ROW()-1</f>
         <v>66</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="15">
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" ht="15">
       <c r="A68">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="4"/>
-      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" ht="15">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" ht="15">
       <c r="A69">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="4"/>
-      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" ht="15">
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" ht="15">
       <c r="A72">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="4"/>
-      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" ht="15">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" ht="15">
       <c r="A76">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" ht="15">
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" ht="15">
       <c r="A77">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" ht="15">
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="15">
       <c r="A78">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" ht="15">
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="15">
       <c r="A79">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" ht="15">
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="15">
       <c r="A80">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="4"/>
-      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" ht="15">
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" ht="15">
       <c r="A81">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="4"/>
-      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" ht="15">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" ht="15">
       <c r="A84">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="4"/>
-      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" ht="15">
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" ht="15">
       <c r="A85">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="4"/>
-      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" ht="15">
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" ht="15">
       <c r="A86">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="4"/>
-      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" ht="15">
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" ht="15">
       <c r="A88">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="4"/>
-      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" ht="15">
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" ht="15">
       <c r="A91">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="4"/>
-      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" ht="15">
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" ht="15">
       <c r="A94">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="4"/>
-      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" ht="15">
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" ht="15">
       <c r="A96">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="4"/>
-      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" ht="15">
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" ht="15">
       <c r="A97">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="4"/>
-      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" ht="15">
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" ht="15">
       <c r="A98">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" s="4"/>
-      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" ht="15">
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" ht="15">
       <c r="A100">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B100" s="4"/>
-      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>101</v>
       </c>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>102</v>
       </c>
-      <c r="G103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="H103" s="2"/>
+      <c r="J103" s="2"/>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>103</v>
       </c>
-      <c r="G104" s="2"/>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>104</v>
       </c>
-      <c r="G105" s="2"/>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>105</v>
       </c>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>106</v>
       </c>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>107</v>
       </c>
-      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="3000" windowWidth="25840" windowHeight="20940" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Egot" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="559">
   <si>
     <t>#</t>
   </si>
@@ -1649,13 +1649,61 @@
   </si>
   <si>
     <t>hallinto, eräretkeily</t>
+  </si>
+  <si>
+    <t>avaruusrahti-insinööri</t>
+  </si>
+  <si>
+    <t>Dagr Kapoor</t>
+  </si>
+  <si>
+    <t>∆v, orbitaalimekaniikka</t>
+  </si>
+  <si>
+    <t>rikastuminen</t>
+  </si>
+  <si>
+    <t>Shalin Sadri</t>
+  </si>
+  <si>
+    <t>geneetikko</t>
+  </si>
+  <si>
+    <t>mikrobiologia, terraformaus</t>
+  </si>
+  <si>
+    <t>uusi alku</t>
+  </si>
+  <si>
+    <t>Adi Delai</t>
+  </si>
+  <si>
+    <t>sotilas, robottikersantti</t>
+  </si>
+  <si>
+    <t>sotilas, robotiikka</t>
+  </si>
+  <si>
+    <t>NA, lab 2</t>
+  </si>
+  <si>
+    <t>egocast / eutanasia</t>
+  </si>
+  <si>
+    <t>Judith Rosenthal</t>
+  </si>
+  <si>
+    <t>yrityslaki, botaniikka</t>
+  </si>
+  <si>
+    <t>murhattu perhe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1731,6 +1779,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1755,7 +1809,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1800,8 +1854,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1815,8 +1870,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="17" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1851,6 +1907,7 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2197,11 +2254,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5995,7 +6052,7 @@
         <v>2107</v>
       </c>
       <c r="F106">
-        <f t="shared" ref="F106:F108" si="4">(2133-E106)</f>
+        <f t="shared" ref="F106:F109" si="4">(2133-E106)</f>
         <v>26</v>
       </c>
       <c r="G106" s="2">
@@ -6072,6 +6129,39 @@
       </c>
       <c r="O108" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C109" t="s">
+        <v>543</v>
+      </c>
+      <c r="D109" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109">
+        <v>2099</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="G109" s="2">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
+        <v>545</v>
+      </c>
+      <c r="O109" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6142,7 +6232,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6926,7 +7016,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="13" t="s">
         <v>516</v>
       </c>
       <c r="C16" t="s">
@@ -7076,10 +7166,51 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D19" t="s">
+        <v>493</v>
+      </c>
+      <c r="E19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19">
+        <v>2075</v>
+      </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>2133</v>
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>549</v>
+      </c>
+      <c r="P19" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>477</v>
+      </c>
+      <c r="R19" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S19" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15">
@@ -7109,6 +7240,9 @@
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="O20" t="s">
         <v>542</v>
       </c>
@@ -7130,10 +7264,48 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C21" t="s">
+        <v>552</v>
+      </c>
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>2109</v>
+      </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>2133</v>
+        <v>24</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>553</v>
+      </c>
+      <c r="P21" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>554</v>
+      </c>
+      <c r="R21" s="11">
+        <v>85377</v>
+      </c>
+      <c r="S21" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -7141,10 +7313,51 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>493</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22">
+        <v>2090</v>
+      </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>2133</v>
+        <v>43</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>-1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>557</v>
+      </c>
+      <c r="P22" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>477</v>
+      </c>
+      <c r="R22" s="11">
+        <v>85316</v>
+      </c>
+      <c r="S22" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -7256,6 +7469,9 @@
       <c r="H27">
         <v>1</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="O27" t="s">
         <v>542</v>
       </c>
@@ -7267,6 +7483,9 @@
       </c>
       <c r="R27" s="11">
         <v>12905</v>
+      </c>
+      <c r="S27" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15">
@@ -7296,6 +7515,9 @@
       <c r="H28">
         <v>1</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="L28">
         <v>1</v>
       </c>
@@ -7310,6 +7532,9 @@
       </c>
       <c r="R28" s="11">
         <v>12905</v>
+      </c>
+      <c r="S28" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15">

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -6232,7 +6232,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>

--- a/out_there/mielet.xlsx
+++ b/out_there/mielet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="560">
   <si>
     <t>#</t>
   </si>
@@ -1697,6 +1697,9 @@
   </si>
   <si>
     <t>murhattu perhe</t>
+  </si>
+  <si>
+    <t>tankin toimintahäiriö</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1812,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1855,6 +1858,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1872,7 +1876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="17" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1908,6 +1912,7 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6229,10 +6234,10 @@
   <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7360,15 +7365,53 @@
         <v>501</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" ht="15">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C23" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23">
+        <v>2111</v>
+      </c>
       <c r="G23">
-        <f t="shared" si="1"/>
-        <v>2133</v>
+        <f>(2134-F23)</f>
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>534</v>
+      </c>
+      <c r="P23" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>554</v>
+      </c>
+      <c r="R23" s="11">
+        <v>13210</v>
+      </c>
+      <c r="S23" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:19">
